--- a/pages/01.HDM Documentation/Planning Template.xlsx
+++ b/pages/01.HDM Documentation/Planning Template.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>Cloud Type</t>
   </si>
   <si>
-    <t>VCS(IBM)</t>
+    <t>VCD(Cloud Director)</t>
   </si>
   <si>
     <t xml:space="preserve">Deployment Mode </t>
@@ -31,7 +31,7 @@
     <t>Resource Allocation</t>
   </si>
   <si>
-    <t>Lite</t>
+    <t>Ultra-lite</t>
   </si>
   <si>
     <t>Number of ESXi on premise Cluster</t>
@@ -52,7 +52,7 @@
     <t>HDM_Internal_Network</t>
   </si>
   <si>
-    <t>&lt;= Number of IPs requried</t>
+    <t>&lt;= Minimum number of IPs requried but provision more</t>
   </si>
   <si>
     <t>Uplink_WAN_Network</t>
@@ -206,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -252,6 +252,11 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -287,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -322,6 +327,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,7 +593,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -596,11 +604,11 @@
         <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>if(B1="VCD(Cloud Director)","&lt;= put 1 here", "&lt;= Fill this")</f>
-        <v>&lt;= Fill this</v>
+        <f>if(B1="VCD(Cloud Director)","&lt;= Not applicable to VCD put 1 here", "&lt;= Fill this")</f>
+        <v>&lt;= Not applicable to VCD put 1 here</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -636,6 +644,9 @@
         <f>1+E55</f>
         <v>3</v>
       </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
@@ -646,6 +657,9 @@
         <f>1+E62</f>
         <v>3</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
@@ -656,12 +670,18 @@
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="6"/>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="6" t="s">
@@ -669,7 +689,10 @@
       </c>
       <c r="D17" s="3">
         <f>E73</f>
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -680,6 +703,9 @@
         <f>E80</f>
         <v>2</v>
       </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="6"/>
@@ -1036,8 +1062,8 @@
         <v>57</v>
       </c>
       <c r="E73" s="3">
-        <f>MAX(20,if(AND($B$2="Cluster",NOT(OR($B$3="Lite",$B$3="Ultra-lite"))), 2+2*$C$8+15, 20))</f>
-        <v>20</v>
+        <f>MAX(50,if(AND($B$2="Cluster",NOT(OR($B$3="Lite",$B$3="Ultra-lite"))), 2+2*$C$8+15, 20))</f>
+        <v>50</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>45</v>
@@ -1093,6 +1119,7 @@
       <c r="F80" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="H80" s="13"/>
     </row>
     <row r="81">
       <c r="B81" s="6" t="s">
